--- a/tests/test-files/basic.xlsx
+++ b/tests/test-files/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="basic-csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>string, string</t>
   </si>
@@ -60,16 +60,41 @@
   </si>
   <si>
     <t>six, six</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>cats,dogs,pandas</t>
+  </si>
+  <si>
+    <t>dogs; pandas ; cats</t>
+  </si>
+  <si>
+    <t>dogs, pandas</t>
+  </si>
+  <si>
+    <t>dogs , pandas ; cats</t>
+  </si>
+  <si>
+    <t>cats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,13 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +425,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -414,8 +445,11 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -431,8 +465,9 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -448,8 +483,11 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -465,8 +503,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -482,8 +523,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -498,6 +542,9 @@
       </c>
       <c r="E7" t="b">
         <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test-files/basic.xlsx
+++ b/tests/test-files/basic.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/WorkingCopies/csv-transform/tests/test-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/WorkingCopies/holy-sheet/tests/test-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="basic-csv" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>string, string</t>
-  </si>
-  <si>
     <t xml:space="preserve"> date</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>cats</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -403,35 +403,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>43101</v>
@@ -446,12 +444,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>43102</v>
@@ -469,7 +467,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>43103</v>
@@ -484,12 +482,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>43104</v>
@@ -504,12 +502,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>43105</v>
@@ -524,12 +522,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>43106</v>
@@ -544,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
